--- a/data/trans_camb/P3A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>3.558445920959818</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>10.13847111333218</v>
+        <v>10.13847111333217</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.843807116508751</v>
+        <v>-1.479077062240914</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.673823016352981</v>
+        <v>4.766929800578128</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18.28739978647449</v>
+        <v>18.35842072061698</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.364726720178332</v>
+        <v>-6.413020325933698</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.116447264156164</v>
+        <v>-4.978540991464342</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.47266176833667</v>
+        <v>-4.298119331424817</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.895399490035967</v>
+        <v>-2.80399095850026</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4781965465161713</v>
+        <v>0.3983262708248702</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.363157310070872</v>
+        <v>7.386395611128405</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.890987022795033</v>
+        <v>7.036200888941326</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.33496909896042</v>
+        <v>14.15914719899005</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28.04586311027993</v>
+        <v>28.32108884430088</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.7334509675179192</v>
+        <v>-0.8778209738837685</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.275284199165458</v>
+        <v>1.297065617435994</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.030522344053521</v>
+        <v>1.134896027802845</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.61811559650643</v>
+        <v>2.585737407700093</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.536138505540865</v>
+        <v>6.450937257676455</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>13.03067625115534</v>
+        <v>12.95442652010228</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.05647747035360968</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.1609115929966698</v>
+        <v>0.1609115929966697</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.0512687303739626</v>
+        <v>-0.04018623520551437</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1347249568732851</v>
+        <v>0.1369548882706875</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.5181196723701658</v>
+        <v>0.5283432980985269</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.07190910046521692</v>
+        <v>-0.07361192184311535</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.05862155482361987</v>
+        <v>-0.05692731937595073</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.05099115571257543</v>
+        <v>-0.04857717990749366</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04542407482351774</v>
+        <v>-0.04379610321873432</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.007442464844829444</v>
+        <v>0.005993042866148506</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1138755129972951</v>
+        <v>0.11431941003972</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2230478066155405</v>
+        <v>0.234079636216959</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4637677124832582</v>
+        <v>0.4560913377640181</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8917224440492126</v>
+        <v>0.9303718024120622</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.008532022058372994</v>
+        <v>-0.01036227704908808</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01498558414727302</v>
+        <v>0.0151917934721038</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01219028343541711</v>
+        <v>0.01327568043905951</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04197815955411357</v>
+        <v>0.04206037365204417</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1054541374023443</v>
+        <v>0.1037347382320785</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2115160704935814</v>
+        <v>0.2100234730715475</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>21.19708410056701</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33.05377156242981</v>
+        <v>33.05377156242979</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.40325430829441</v>
@@ -869,7 +869,7 @@
         <v>5.5610905594766</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>9.601508100715861</v>
+        <v>9.601508100715872</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>6.734473026117971</v>
@@ -878,7 +878,7 @@
         <v>13.84345449662937</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>21.97477212921762</v>
+        <v>21.97477212921763</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>9.281807472047531</v>
+        <v>9.261366189022306</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>18.07664085050236</v>
+        <v>17.74133453585359</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29.60163772072875</v>
+        <v>29.43990510846506</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9396783207368866</v>
+        <v>-0.9905741806360209</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.44979865096479</v>
+        <v>3.299170102499929</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.600930522071462</v>
+        <v>7.134618774950926</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.432914717209662</v>
+        <v>4.563878506714421</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>11.51389393779212</v>
+        <v>11.62962575975528</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>19.46457140385372</v>
+        <v>19.8521266057141</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.75223553043666</v>
+        <v>15.69936043013916</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>24.51491839731847</v>
+        <v>24.28370990082335</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36.28920804090568</v>
+        <v>36.22609101539386</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.217888970243014</v>
+        <v>3.90872802034191</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.751474832498974</v>
+        <v>7.850896188765309</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.08250947651298</v>
+        <v>11.85756083186848</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.024081469586429</v>
+        <v>9.371889324450274</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>16.019997796837</v>
+        <v>16.26034164937164</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>24.16133957930182</v>
+        <v>24.31156368866984</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.6519553198532719</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.016629556645693</v>
+        <v>1.016629556645692</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.01683273647893794</v>
@@ -974,7 +974,7 @@
         <v>0.06670805952269315</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1151748864795427</v>
+        <v>0.1151748864795429</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1179273145633735</v>
@@ -983,7 +983,7 @@
         <v>0.2424126441276745</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.3848000957596091</v>
+        <v>0.3848000957596093</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.272877568422074</v>
+        <v>0.2716510726668853</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.5244151438988272</v>
+        <v>0.5107010363205532</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.8631323888372142</v>
+        <v>0.8548674837790252</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.01087083866033023</v>
+        <v>-0.0116867555857761</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0419322388912719</v>
+        <v>0.0392356192739389</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08964685638273356</v>
+        <v>0.08406011516402634</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0757829236464434</v>
+        <v>0.07896385134885434</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1961794441627245</v>
+        <v>0.1984071197005012</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3328747482075237</v>
+        <v>0.3390897029070271</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5144207318936069</v>
+        <v>0.5127825469167024</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8012162097785296</v>
+        <v>0.7912220118838484</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.181684597665115</v>
+        <v>1.184494859244198</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.05165470073690747</v>
+        <v>0.04798808751801378</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09531931950240309</v>
+        <v>0.09572164324337268</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.147876360845124</v>
+        <v>0.1448907202859794</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1625546608003129</v>
+        <v>0.1690106825349182</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2885231344240975</v>
+        <v>0.2929454355082475</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4352101441934095</v>
+        <v>0.4349555634360099</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>24.14471901243641</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30.50176330015188</v>
+        <v>30.50176330015186</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.009301926410223</v>
@@ -1092,7 +1092,7 @@
         <v>16.95399446902258</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>22.21985391417313</v>
+        <v>22.2198539141731</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.872206007471103</v>
+        <v>6.464188615984318</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>18.26048734873769</v>
+        <v>18.17747542105189</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24.424211445818</v>
+        <v>24.85522624911713</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.574881825834147</v>
+        <v>-3.592627279651033</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.092285109023111</v>
+        <v>2.415429923457721</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.574705430202356</v>
+        <v>6.656786471177761</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.862410159347167</v>
+        <v>3.93977407595527</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>13.19891211590724</v>
+        <v>12.47847565557363</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>18.14482238005392</v>
+        <v>18.11087558766447</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.67056416736336</v>
+        <v>19.18144411057579</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>30.08727730144142</v>
+        <v>30.27154032927635</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>36.17964837341962</v>
+        <v>36.94469461245233</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.54605840780649</v>
+        <v>7.048172873589969</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.83717992364822</v>
+        <v>11.31484795430919</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>15.5909623681023</v>
+        <v>15.28330573146971</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.4767659637613</v>
+        <v>13.0148204780333</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>20.94126226068967</v>
+        <v>20.87563933557006</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>25.87606329081246</v>
+        <v>26.04647486733296</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.5774046404606706</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7294290591109878</v>
+        <v>0.7294290591109875</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.02531898219123103</v>
@@ -1197,7 +1197,7 @@
         <v>0.286407351566433</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3753646094068976</v>
+        <v>0.3753646094068973</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1310363256138515</v>
+        <v>0.1475395424002498</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.4045392784834271</v>
+        <v>0.4074470822923785</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5397820341054919</v>
+        <v>0.5511634101649011</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0436652268559174</v>
+        <v>-0.04390921204716897</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02621942920756581</v>
+        <v>0.03007953187010663</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07996454844834402</v>
+        <v>0.08123096125247337</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06292005408156183</v>
+        <v>0.06392340487292758</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2155783549381217</v>
+        <v>0.2014233915827344</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2931109070528836</v>
+        <v>0.2900403403212209</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4814502452977113</v>
+        <v>0.5011817233473181</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7805715008808402</v>
+        <v>0.7876546302119916</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9612085549632257</v>
+        <v>0.9761414414371654</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.09841311762382721</v>
+        <v>0.09117399024177907</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1566236620416563</v>
+        <v>0.1489009061843032</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2071452878661682</v>
+        <v>0.1989911954109521</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2190407820044248</v>
+        <v>0.2290946022681146</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3677510024233077</v>
+        <v>0.36969653480114</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4587237914645585</v>
+        <v>0.457398213646834</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.071682852457515</v>
+        <v>6.925884007481224</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>16.33716290857823</v>
+        <v>16.41780134667457</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>28.64914009423672</v>
+        <v>28.86057236420648</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.203566433402631</v>
+        <v>-2.076354583050286</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.56876047478671</v>
+        <v>1.745250311323253</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.062601186636934</v>
+        <v>4.94220108179005</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.88682140939752</v>
+        <v>2.839404408177324</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>9.413646089609133</v>
+        <v>9.539885365337277</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>17.37203225290611</v>
+        <v>17.3224023245674</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.00602919680982</v>
+        <v>11.79680235195006</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>21.39861164314619</v>
+        <v>21.24710308537806</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>33.52301166653668</v>
+        <v>33.69639317092538</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.331410640843066</v>
+        <v>1.405716690211207</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.047974050469232</v>
+        <v>5.171926555604567</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.27186265127016</v>
+        <v>8.190860933773418</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.24426603879972</v>
+        <v>6.278438559672736</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>12.81068495140712</v>
+        <v>12.80666329367167</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>20.48056846426099</v>
+        <v>20.48553617084699</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2027320605530954</v>
+        <v>0.193684506166965</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.4642123780769458</v>
+        <v>0.4589887017660983</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.807525892168518</v>
+        <v>0.8126126544185712</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.02605025156979041</v>
+        <v>-0.02442673303050125</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01847866459322163</v>
+        <v>0.02046083638100214</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05934151259496893</v>
+        <v>0.05854412839777705</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04810648323237127</v>
+        <v>0.04719722287925147</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1579151879452478</v>
+        <v>0.1584023861766359</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2885573591548424</v>
+        <v>0.2859842790203882</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3642237051848622</v>
+        <v>0.3551699434974169</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6505082893371709</v>
+        <v>0.6447907926769935</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.017968097693926</v>
+        <v>1.019462055117252</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.01602403361261181</v>
+        <v>0.01677089494521206</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.06105258085362247</v>
+        <v>0.06209164941462975</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09961387037159704</v>
+        <v>0.09896682569636664</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1070820555901483</v>
+        <v>0.107199107515284</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2197693462162487</v>
+        <v>0.2197179924794674</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.3508758635900459</v>
+        <v>0.3485194853436236</v>
       </c>
     </row>
     <row r="28">
